--- a/data/trans_dic/P16B13-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B13-Provincia-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B13-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B13-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,21%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,79%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,7%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,05%</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>42,5; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>75,19; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>72,59; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>79,51; 100,0</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,02%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>62,78; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>90,51; 100</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>82,61; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>94,55; 100</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>80,05; 98,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>90,51; 100</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>85,49; 100</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,39%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,18%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,18%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,23%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,31%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>31,05; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>54,38; 90,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>56,68; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>58,23; 94,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>88,14; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>83,02; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>59,15; 95,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>79,44; 95,27</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>79,98; 100,0</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,93%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,78%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,66%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 36,25</t>
+          <t>63,75; 100</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>69,65; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 44,41</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>82,63; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>61,15; 100,0</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 30,57</t>
+          <t>69,43; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>86,51; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>79,25; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>73,58; 100</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>92,39; 100</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>87,39; 100</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,24%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,17%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,46%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,8%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>90,01; 100</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>79,01; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>76,16; 100,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>79,97; 100,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>94,04; 100</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 6,81</t>
+          <t>79,4; 100,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>86,27; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>91,85; 100,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,9</t>
+          <t>85,69; 100,0</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,01%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,97%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,22%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,66%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,14%</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>74,65; 100,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>53,31; 100,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>69,91; 100,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>93,64; 100</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>92,39; 100</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>83,76; 100,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>95,93; 100</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>81,41; 100,0</t>
         </is>
       </c>
     </row>
@@ -1512,47 +1512,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,86%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,26%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,44%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,14%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,95%</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>88,83; 98,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>85,15; 96,06</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>84,96; 98,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,58</t>
+          <t>90,16; 98,34</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,1</t>
+          <t>95,8; 99,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>93,26; 99,32</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,94</t>
+          <t>91,82; 97,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,64</t>
+          <t>92,79; 97,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>92,17; 98,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B13-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B13-Provincia-trans_dic.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,65%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,89%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,83; 85,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,93; 92,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>76,39%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>96,18%</t>
+          <t>93,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>89,23%</t>
+          <t>95,19%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,38; 90,38</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>88,14; 100,0</t>
+          <t>80,92; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>79,44; 95,27</t>
+          <t>84,84; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_dic/P16B13-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B13-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,12 +686,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>42,5; 100,0</t>
+          <t>43,63; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,83; 85,9</t>
+          <t>37,39; 86,83</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -710,29 +711,29 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>75,19; 100,0</t>
+          <t>73,08; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>72,59; 100,0</t>
+          <t>71,78; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>64,93; 92,84</t>
+          <t>65,4; 93,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>79,51; 100,0</t>
+          <t>83,77; 100,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -800,7 +801,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>62,78; 100,0</t>
+          <t>60,09; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -815,7 +816,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>82,61; 100,0</t>
+          <t>85,74; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -830,7 +831,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>80,05; 98,41</t>
+          <t>78,84; 98,42</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -842,7 +843,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1015,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,05; 100,0</t>
+          <t>31,08; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1025,37 +1026,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>56,68; 100,0</t>
+          <t>55,66; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>58,23; 94,51</t>
+          <t>57,9; 94,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>80,92; 100,0</t>
+          <t>81,06; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>83,02; 100,0</t>
+          <t>81,7; 100,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>59,15; 95,64</t>
+          <t>59,45; 95,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>84,84; 100,0</t>
+          <t>84,03; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>79,98; 100,0</t>
+          <t>77,41; 100,0</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1131,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>69,65; 100,0</t>
+          <t>73,48; 100,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1160,19 +1161,19 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>82,63; 100,0</t>
+          <t>83,87; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>61,15; 100,0</t>
+          <t>52,76; 100,0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1282,7 +1283,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1350,17 +1351,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>79,01; 100,0</t>
+          <t>80,05; 100,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>76,16; 100,0</t>
+          <t>75,83; 100,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>79,97; 100,0</t>
+          <t>80,47; 100,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1370,22 +1371,22 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>79,4; 100,0</t>
+          <t>81,04; 100,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>86,27; 100,0</t>
+          <t>86,01; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>91,85; 100,0</t>
+          <t>91,82; 100,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>85,69; 100,0</t>
+          <t>87,01; 100,0</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1456,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>74,65; 100,0</t>
+          <t>79,41; 100,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1465,12 +1466,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>53,31; 100,0</t>
+          <t>60,28; 100,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>69,91; 100,0</t>
+          <t>74,19; 100,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1485,7 +1486,7 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>83,76; 100,0</t>
+          <t>83,23; 100,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1495,7 +1496,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>81,41; 100,0</t>
+          <t>82,17; 100,0</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1566,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>88,83; 98,95</t>
+          <t>87,8; 98,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>85,15; 96,06</t>
+          <t>85,78; 96,6</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>84,96; 98,14</t>
+          <t>86,06; 98,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>90,16; 98,34</t>
+          <t>90,23; 98,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>95,8; 99,53</t>
+          <t>95,78; 99,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>93,26; 99,32</t>
+          <t>92,91; 99,31</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>91,82; 97,86</t>
+          <t>91,94; 97,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>92,79; 97,69</t>
+          <t>92,54; 97,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>92,17; 98,18</t>
+          <t>92,18; 98,14</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para alteraciones digestivas fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6146</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>12030</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8609</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7268</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>18458</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>20774</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13414</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>30488</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>29384</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3074; 7047</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6851; 15911</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6996; 8609</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5578; 7268</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>16513; 18458</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16539; 22632</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>10275; 14315</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>24057; 34335</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>26172; 31242</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15912</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>23562</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11148</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>18893</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>30518</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8574</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>34805</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>54080</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>19722</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14030; 15912</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>15948; 26541</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9399; 11148</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>17099; 18893</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>27090; 31596</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6795; 8574</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>32907; 34805</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>45834; 57218</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17850; 19722</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4896</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11995</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6039</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>11329</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13654</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6410</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>16225</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>25649</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>12449</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3399; 4896</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9748; 11995</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4444; 6039</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9552; 11329</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11812; 13654</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4717; 6410</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14417; 16225</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>23528; 25649</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>10643; 12449</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>5732</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8340</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>15084</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12856</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>28880</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>27686</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>18588</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>37220</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>42770</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2255; 7258</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6401; 8340</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>9316; 16739</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>9054; 14764</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>24935; 30761</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>23374; 28610</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>13613; 21905</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>32858; 39101</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>35104; 45349</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>3764</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>15974</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2086</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>7299</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>15446</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7098</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>11063</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>31421</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>9184</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2400; 3764</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>12495; 17006</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0; 3033</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5602; 7299</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>13499; 15446</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>5448; 7098</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>9328; 11063</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>27218; 32453</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>5345; 10131</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>4988</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>14220</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>7362</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>11809</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>10845</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6520</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>16797</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>25065</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>13882</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>3463; 4988</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>12302; 14220</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>5834; 7362</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>9957; 11809</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>9144; 10845</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>4798; 6520</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>14925; 16797</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>23157; 25065</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>12132; 13882</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>19284</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>22473</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>23316</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>27745</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>36313</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>30492</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>47029</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>58786</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>53809</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>17358; 19284</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>18727; 23394</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>18564; 24482</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>23834; 29617</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>34148; 36313</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>25678; 31686</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>42058; 48901</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>54820; 59707</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>48869; 56168</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>21214</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>20443</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>18647</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>16599</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>33021</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>27427</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>37813</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>53465</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>46074</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>17731; 22328</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>18289; 20443</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>12355; 20498</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>13069; 17617</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>30922; 33021</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>25339; 27427</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>33248; 39945</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>51290; 53465</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>39381; 47925</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>81936</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>129037</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>92292</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>113797</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>187136</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>134981</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>195734</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>316174</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>227273</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>75049; 84577</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>120311; 135496</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>84259; 96038</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>107798; 117533</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>182076; 189201</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>129107; 138000</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>188423; 200356</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>305713; 322735</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>218352; 232463</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>